--- a/HH_Projects/02_Macro_Risk/Data_Files/Test_Files/Test_PY_multiple_result.xlsx
+++ b/HH_Projects/02_Macro_Risk/Data_Files/Test_Files/Test_PY_multiple_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>autocorr</t>
   </si>
@@ -55,10 +55,13 @@
     <t>t_12</t>
   </si>
   <si>
-    <t>Business Environment</t>
-  </si>
-  <si>
-    <t>Employment to Working-Age Population</t>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>High-Tech Export License Fee</t>
+  </si>
+  <si>
+    <t>Human Resource Potential</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,43 +471,43 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.9977542827773699</v>
+        <v>0.9982774869305849</v>
       </c>
       <c r="C2">
-        <v>0.00996473643866732</v>
+        <v>-0.0009372541734140637</v>
       </c>
       <c r="D2">
-        <v>0.01119539204524879</v>
+        <v>-0.001003229381878753</v>
       </c>
       <c r="E2">
-        <v>0.01095666575726387</v>
+        <v>-0.001115132124710379</v>
       </c>
       <c r="F2">
-        <v>0.0093311612202169</v>
+        <v>-0.0007454297104910164</v>
       </c>
       <c r="G2">
-        <v>0.007258602538678676</v>
+        <v>-0.0005206232563236894</v>
       </c>
       <c r="H2">
-        <v>0.01217082114918043</v>
+        <v>-0.0003844094476602785</v>
       </c>
       <c r="I2">
-        <v>1.013194684874737</v>
+        <v>-1.044742978679037</v>
       </c>
       <c r="J2">
-        <v>1.136352843538426</v>
+        <v>-1.112573746476404</v>
       </c>
       <c r="K2">
-        <v>1.101273202546015</v>
+        <v>-1.213767651745366</v>
       </c>
       <c r="L2">
-        <v>0.9117742504712976</v>
+        <v>-0.7939425012093299</v>
       </c>
       <c r="M2">
-        <v>0.6913781203080083</v>
+        <v>-0.5529558068972051</v>
       </c>
       <c r="N2">
-        <v>1.160964152776214</v>
+        <v>-0.4000705520751133</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -512,43 +515,87 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.9968807056282837</v>
+        <v>0.9915614099663872</v>
       </c>
       <c r="C3">
-        <v>0.008893493774778173</v>
+        <v>0.0006268472938502271</v>
       </c>
       <c r="D3">
-        <v>0.008454592359852431</v>
+        <v>0.0005584876230751919</v>
       </c>
       <c r="E3">
-        <v>0.007691299983598236</v>
+        <v>0.0004164839756299694</v>
       </c>
       <c r="F3">
-        <v>0.006251416358426532</v>
+        <v>0.0002277264861661366</v>
       </c>
       <c r="G3">
-        <v>0.00606460645203338</v>
+        <v>0.0001904194369003335</v>
       </c>
       <c r="H3">
-        <v>0.01123454632126537</v>
+        <v>0.0003657314713206049</v>
       </c>
       <c r="I3">
-        <v>0.8186322769601203</v>
+        <v>0.727977254893624</v>
       </c>
       <c r="J3">
-        <v>0.78045002961951</v>
+        <v>0.6469507782914579</v>
       </c>
       <c r="K3">
-        <v>0.7028727057476953</v>
+        <v>0.4818836480533804</v>
       </c>
       <c r="L3">
-        <v>0.5802608649129477</v>
+        <v>0.2589545544634101</v>
       </c>
       <c r="M3">
-        <v>0.5540590376947974</v>
+        <v>0.2156980128127041</v>
       </c>
       <c r="N3">
-        <v>1.046222048989864</v>
+        <v>0.4115462222501377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.9974451275498581</v>
+      </c>
+      <c r="C4">
+        <v>0.0003243563084310557</v>
+      </c>
+      <c r="D4">
+        <v>0.0002111592537798186</v>
+      </c>
+      <c r="E4">
+        <v>0.0002198305263891949</v>
+      </c>
+      <c r="F4">
+        <v>6.504032072240733e-05</v>
+      </c>
+      <c r="G4">
+        <v>-0.0001760128939990323</v>
+      </c>
+      <c r="H4">
+        <v>-5.451079493838395e-05</v>
+      </c>
+      <c r="I4">
+        <v>0.3478885934807181</v>
+      </c>
+      <c r="J4">
+        <v>0.225741906537335</v>
+      </c>
+      <c r="K4">
+        <v>0.2329391112709677</v>
+      </c>
+      <c r="L4">
+        <v>0.06892437089634451</v>
+      </c>
+      <c r="M4">
+        <v>-0.1903678594328336</v>
+      </c>
+      <c r="N4">
+        <v>-0.05870297545033099</v>
       </c>
     </row>
   </sheetData>
